--- a/Crossnumber.xlsx
+++ b/Crossnumber.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="80" documentId="8_{49F2C55D-19AA-4DC7-9166-1531E2DD8894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E473642-4C3B-4599-9CFD-539D468C5078}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{559E1A8A-4E65-4B7B-9E5B-E4344392AA1F}"/>
+    <workbookView xWindow="30" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{559E1A8A-4E65-4B7B-9E5B-E4344392AA1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Input data" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -307,7 +307,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7461,7 +7460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5664CDC7-5603-4078-AE79-C6EFA8200E58}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AN20" sqref="AN20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -10183,7 +10184,7 @@
   <dimension ref="A1:AE41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC35" sqref="AC35"/>
+      <selection activeCell="AH34" sqref="AH34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12552,73 +12553,7 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
     </row>
-    <row r="32" spans="1:31">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
-    </row>
-    <row r="33" spans="1:31">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="6"/>
-      <c r="AE33" s="6"/>
-    </row>
-    <row r="34" spans="1:31" ht="18">
+    <row r="34" spans="5:21" ht="18">
       <c r="E34" s="4" t="s">
         <v>53</v>
       </c>
@@ -12626,7 +12561,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="5:21">
       <c r="E36">
         <v>1</v>
       </c>
@@ -12640,7 +12575,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="5:21">
       <c r="E37">
         <v>2</v>
       </c>
@@ -12654,7 +12589,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="5:21">
       <c r="E38">
         <v>3</v>
       </c>
@@ -12668,7 +12603,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="5:21">
       <c r="E39">
         <v>4</v>
       </c>
@@ -12682,7 +12617,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="5:21">
       <c r="E40">
         <v>5</v>
       </c>
@@ -12690,7 +12625,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="5:21">
       <c r="E41">
         <v>6</v>
       </c>
